--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value296.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value296.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.645894385285666</v>
+        <v>0.947550356388092</v>
       </c>
       <c r="B1">
-        <v>1.718191161063394</v>
+        <v>1.617266774177551</v>
       </c>
       <c r="C1">
-        <v>1.855109065015789</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.465456782660389</v>
+        <v>2.565396308898926</v>
       </c>
       <c r="E1">
-        <v>0.5960875018424775</v>
+        <v>1.346478939056396</v>
       </c>
     </row>
   </sheetData>
